--- a/Excel/DaftarBarang/ProdukJadiDataExcel.xlsx
+++ b/Excel/DaftarBarang/ProdukJadiDataExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>stok</t>
   </si>
   <si>
-    <t>Sirup Glukosa</t>
+    <t>Permen</t>
   </si>
   <si>
     <t>SG01</t>
@@ -86,7 +86,7 @@
     <t>Gula Pasir</t>
   </si>
   <si>
-    <t>Sirup Glukosa (edit)</t>
+    <t>Edited Candy</t>
   </si>
   <si>
     <t>SG02</t>
@@ -1253,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
